--- a/Excel/EposEnvironmentTile.xlsx
+++ b/Excel/EposEnvironmentTile.xlsx
@@ -468,7 +468,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.13"/>
+    <col customWidth="1" min="2" max="2" width="20.25"/>
     <col customWidth="1" min="4" max="4" width="14.13"/>
   </cols>
   <sheetData>
@@ -488,7 +488,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>103001.0</v>
+        <v>109.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>103001.0</v>
+        <v>109.0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>103001.0</v>
+        <v>109.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
